--- a/js/story/剧情.xlsx
+++ b/js/story/剧情.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800B4113-9D79-7C4F-97C4-2BC4A28D73A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09DA10DE-DA6A-2445-B860-B3D867391E8A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="18920" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="-28340" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A0001" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="2133">
   <si>
     <t>公里</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5691,9 +5691,6 @@
     <t>choice2</t>
   </si>
   <si>
-    <t>choice1effecttype</t>
-  </si>
-  <si>
     <t>values</t>
   </si>
   <si>
@@ -5703,15 +5700,6 @@
     <t>我还赶时间</t>
   </si>
   <si>
-    <t>resultvalue1</t>
-  </si>
-  <si>
-    <t>resultvalue2</t>
-  </si>
-  <si>
-    <t>choice2effecttype</t>
-  </si>
-  <si>
     <t>exit</t>
   </si>
   <si>
@@ -5727,12 +5715,6 @@
     <t>[0,0,0,0,0,0]</t>
   </si>
   <si>
-    <t>result1buff</t>
-  </si>
-  <si>
-    <t>result2buff</t>
-  </si>
-  <si>
     <t>曾经又个少女，与一个年轻的少年热恋。</t>
   </si>
   <si>
@@ -5751,9 +5733,6 @@
     <t>春去秋来，聚少离多。</t>
   </si>
   <si>
-    <t>belong</t>
-  </si>
-  <si>
     <t>修女</t>
   </si>
   <si>
@@ -6418,6 +6397,30 @@
   </si>
   <si>
     <t>[10,10,10,10,10,0]</t>
+  </si>
+  <si>
+    <t>eventCharacter</t>
+  </si>
+  <si>
+    <t>choice1EffectType</t>
+  </si>
+  <si>
+    <t>choice2EffectType</t>
+  </si>
+  <si>
+    <t>choice1ResultValue</t>
+  </si>
+  <si>
+    <t>choice2ResultValue</t>
+  </si>
+  <si>
+    <t>choice1Butt</t>
+  </si>
+  <si>
+    <t>choice2Buff</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -6800,30 +6803,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G77" workbookViewId="0">
-      <selection activeCell="M94" sqref="M94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1909</v>
+        <v>2125</v>
       </c>
       <c r="B1" t="s">
         <v>1885</v>
@@ -6838,1777 +6841,2105 @@
         <v>1888</v>
       </c>
       <c r="F1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H1" t="s">
         <v>1889</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H2" t="s">
         <v>1895</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1907</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1912</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1914</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1919</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1917</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1926</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D14" t="s">
         <v>1890</v>
       </c>
-      <c r="I1" t="s">
-        <v>1893</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1901</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E14" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1932</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1942</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1942</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C18" t="s">
         <v>1910</v>
       </c>
-      <c r="B2" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D18" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>1928</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B19" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D19" t="s">
         <v>1898</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E19" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I19" t="s">
         <v>1896</v>
       </c>
-      <c r="H2" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="J19" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D20" t="s">
         <v>1898</v>
       </c>
-      <c r="C3" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E20" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1937</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1955</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1970</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1951</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1952</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C26" t="s">
         <v>1905</v>
       </c>
-      <c r="G3" t="s">
-        <v>1905</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>1905</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D26" t="s">
         <v>1906</v>
       </c>
-      <c r="D4" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1907</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1907</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>1907</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1908</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E26" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I26" t="s">
         <v>1896</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J26" t="s">
         <v>1896</v>
       </c>
-      <c r="H6" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1914</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>1915</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="K26" t="s">
+        <v>1984</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>1928</v>
       </c>
-      <c r="F7" t="s">
-        <v>1916</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1919</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1919</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1921</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1921</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>1921</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1896</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1926</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1928</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1923</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1929</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1924</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1924</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>1924</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1930</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1932</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1896</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1933</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1934</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1945</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>1935</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1892</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1937</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1947</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1939</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1939</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1948</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1940</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1896</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1949</v>
-      </c>
-      <c r="L18" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1950</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1941</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1928</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1942</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1951</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1952</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1943</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1953</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1944</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1944</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>1944</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1954</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1956</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1896</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1962</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1963</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1977</v>
-      </c>
-      <c r="L22" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>1957</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1958</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>1958</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1964</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1959</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1959</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>1959</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1965</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1960</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1960</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>1960</v>
       </c>
       <c r="C27" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1896</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1964</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1965</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F30" t="s">
         <v>1966</v>
       </c>
-      <c r="D27" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1961</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G30" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I30" t="s">
         <v>1896</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J30" t="s">
         <v>1896</v>
       </c>
-      <c r="H28" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="K30" t="s">
+        <v>1971</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2012</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1896</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E39" t="s">
         <v>1991</v>
       </c>
-      <c r="L28" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1928</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1969</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F39" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1992</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1993</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2008</v>
+      </c>
+      <c r="J41" t="s">
         <v>1896</v>
       </c>
-      <c r="H29" t="s">
-        <v>1970</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1974</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1971</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1971</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>1971</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1975</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1972</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1976</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1973</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1978</v>
-      </c>
-      <c r="L32" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1980</v>
-      </c>
-      <c r="G34" t="s">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2012</v>
+      </c>
+      <c r="I42" t="s">
         <v>1896</v>
       </c>
-      <c r="H34" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>1980</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1987</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1981</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1981</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>1981</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1988</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1982</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1982</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>1982</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1990</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1983</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1983</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>1983</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="J42" t="s">
         <v>1896</v>
       </c>
-      <c r="G38" t="s">
+      <c r="M42" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I43" t="s">
         <v>1896</v>
       </c>
-      <c r="H38" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J38" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K38" t="s">
-        <v>1992</v>
-      </c>
-      <c r="L38" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1984</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1928</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1985</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1985</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="J43" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2018</v>
+      </c>
+      <c r="L43" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C45" t="s">
         <v>2019</v>
       </c>
-      <c r="I39" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>1985</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1994</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1986</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>1986</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1989</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>1989</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1996</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1997</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1998</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D45" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H45" t="s">
+        <v>2012</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2025</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2023</v>
+      </c>
+      <c r="L45" t="s">
+        <v>2024</v>
+      </c>
+      <c r="M45" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I46" t="s">
         <v>1896</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J46" t="s">
         <v>1896</v>
       </c>
-      <c r="H42" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1999</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1999</v>
-      </c>
-      <c r="K42" t="s">
-        <v>2000</v>
-      </c>
-      <c r="L42" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>2001</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2002</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2009</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2010</v>
-      </c>
-      <c r="F44" t="s">
-        <v>2003</v>
-      </c>
-      <c r="G44" t="s">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I47" t="s">
         <v>1896</v>
       </c>
-      <c r="H44" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I44" t="s">
-        <v>2011</v>
-      </c>
-      <c r="J44" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>2003</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2012</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2013</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2014</v>
-      </c>
-      <c r="F45" t="s">
-        <v>2004</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="J47" t="s">
         <v>1896</v>
       </c>
-      <c r="H45" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I45" t="s">
-        <v>2015</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>2018</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2004</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D46" t="s">
-        <v>2017</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2017</v>
-      </c>
-      <c r="F46" t="s">
-        <v>2005</v>
-      </c>
-      <c r="G46" t="s">
-        <v>2005</v>
-      </c>
-      <c r="H46" t="s">
-        <v>2019</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>2005</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2020</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2021</v>
-      </c>
-      <c r="F47" t="s">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2031</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I48" t="s">
         <v>1896</v>
       </c>
-      <c r="G47" t="s">
+      <c r="J48" t="s">
         <v>1896</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K47" t="s">
-        <v>2025</v>
-      </c>
-      <c r="L47" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>2006</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2023</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2024</v>
-      </c>
-      <c r="F48" t="s">
-        <v>2007</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B49" t="s">
-        <v>2007</v>
+        <v>2031</v>
       </c>
       <c r="C49" t="s">
-        <v>2026</v>
+        <v>2042</v>
       </c>
       <c r="D49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2032</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>2027</v>
       </c>
-      <c r="E49" t="s">
-        <v>2028</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="B50" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2033</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I50" t="s">
         <v>1896</v>
       </c>
-      <c r="G49" t="s">
+      <c r="J50" t="s">
         <v>1896</v>
-      </c>
-      <c r="H49" t="s">
-        <v>2019</v>
-      </c>
-      <c r="I49" t="s">
-        <v>2032</v>
-      </c>
-      <c r="J49" t="s">
-        <v>2033</v>
-      </c>
-      <c r="K49" t="s">
-        <v>2030</v>
-      </c>
-      <c r="L49" t="s">
-        <v>2031</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2048</v>
+      </c>
+      <c r="L51" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B52" t="s">
         <v>2034</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C52" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F52" t="s">
         <v>2035</v>
       </c>
-      <c r="C51" t="s">
+      <c r="G52" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2036</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F55" t="s">
         <v>2045</v>
       </c>
-      <c r="D51" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="G55" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F56" t="s">
         <v>2046</v>
       </c>
-      <c r="F51" t="s">
-        <v>2036</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="G56" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I56" t="s">
         <v>1896</v>
       </c>
-      <c r="H51" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I51" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J51" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>2036</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="J56" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F57" t="s">
         <v>2047</v>
       </c>
-      <c r="D52" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F52" t="s">
-        <v>2037</v>
-      </c>
-      <c r="G52" t="s">
-        <v>2037</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J52" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>2037</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F53" t="s">
-        <v>2038</v>
-      </c>
-      <c r="G53" t="s">
-        <v>2038</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I53" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>2038</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2049</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F54" t="s">
-        <v>2039</v>
-      </c>
-      <c r="G54" t="s">
-        <v>2039</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2050</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F55" t="s">
-        <v>2040</v>
-      </c>
-      <c r="G55" t="s">
-        <v>2040</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J55" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>2040</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="G57" t="s">
+        <v>2047</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K58" t="s">
+        <v>2059</v>
+      </c>
+      <c r="L58" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B59" t="s">
         <v>2051</v>
       </c>
-      <c r="D56" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="C59" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I59" t="s">
         <v>1896</v>
       </c>
-      <c r="G56" t="s">
+      <c r="J59" t="s">
         <v>1896</v>
       </c>
-      <c r="H56" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K56" t="s">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2054</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F62" t="s">
         <v>2055</v>
       </c>
-      <c r="L56" t="s">
+      <c r="G62" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>2041</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1928</v>
-      </c>
-      <c r="F57" t="s">
-        <v>2042</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="H62" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I62" t="s">
         <v>1896</v>
       </c>
-      <c r="H57" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>2042</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2056</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F58" t="s">
-        <v>2043</v>
-      </c>
-      <c r="G58" t="s">
-        <v>2043</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I58" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>2043</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2057</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F59" t="s">
-        <v>2044</v>
-      </c>
-      <c r="G59" t="s">
-        <v>2044</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I59" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="J62" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C63" t="s">
         <v>2063</v>
       </c>
-      <c r="D60" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F60" t="s">
-        <v>2052</v>
-      </c>
-      <c r="G60" t="s">
-        <v>2052</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>2052</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D63" t="s">
         <v>2064</v>
       </c>
-      <c r="D61" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F61" t="s">
-        <v>2053</v>
-      </c>
-      <c r="G61" t="s">
-        <v>2053</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I61" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>2053</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="E63" t="s">
         <v>2065</v>
       </c>
-      <c r="D62" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F62" t="s">
-        <v>2054</v>
-      </c>
-      <c r="G62" t="s">
-        <v>2054</v>
-      </c>
-      <c r="H62" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I62" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J62" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>2054</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2051</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1913</v>
-      </c>
       <c r="F63" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="G63" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="H63" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I63" t="s">
-        <v>1900</v>
+        <v>2067</v>
       </c>
       <c r="J63" t="s">
-        <v>1900</v>
+        <v>2068</v>
       </c>
       <c r="K63" t="s">
         <v>2066</v>
@@ -8618,499 +8949,614 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2027</v>
+      </c>
       <c r="B64" t="s">
-        <v>2058</v>
+        <v>2069</v>
       </c>
       <c r="C64" t="s">
-        <v>1917</v>
+        <v>2038</v>
       </c>
       <c r="D64" t="s">
-        <v>1927</v>
+        <v>1890</v>
       </c>
       <c r="E64" t="s">
-        <v>1928</v>
+        <v>2039</v>
       </c>
       <c r="F64" t="s">
-        <v>2059</v>
+        <v>2070</v>
       </c>
       <c r="G64" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I64" t="s">
         <v>1896</v>
       </c>
-      <c r="H64" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1900</v>
-      </c>
       <c r="J64" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2027</v>
+      </c>
       <c r="B65" t="s">
-        <v>2059</v>
+        <v>2070</v>
       </c>
       <c r="C65" t="s">
-        <v>2067</v>
+        <v>2079</v>
       </c>
       <c r="D65" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="E65" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="F65" t="s">
-        <v>2060</v>
+        <v>2071</v>
       </c>
       <c r="G65" t="s">
-        <v>2060</v>
+        <v>2071</v>
       </c>
       <c r="H65" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I65" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="J65" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2027</v>
+      </c>
       <c r="B66" t="s">
-        <v>2060</v>
+        <v>2071</v>
       </c>
       <c r="C66" t="s">
-        <v>2068</v>
+        <v>2080</v>
       </c>
       <c r="D66" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="E66" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="F66" t="s">
-        <v>2061</v>
+        <v>2072</v>
       </c>
       <c r="G66" t="s">
-        <v>2061</v>
+        <v>2072</v>
       </c>
       <c r="H66" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I66" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="J66" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2027</v>
+      </c>
       <c r="B67" t="s">
-        <v>2061</v>
+        <v>2072</v>
       </c>
       <c r="C67" t="s">
-        <v>2069</v>
+        <v>2081</v>
       </c>
       <c r="D67" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="E67" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="F67" t="s">
-        <v>2062</v>
+        <v>2073</v>
       </c>
       <c r="G67" t="s">
-        <v>2062</v>
+        <v>2073</v>
       </c>
       <c r="H67" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I67" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="J67" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2027</v>
+      </c>
       <c r="B68" t="s">
-        <v>2062</v>
+        <v>2073</v>
       </c>
       <c r="C68" t="s">
-        <v>2070</v>
+        <v>2082</v>
       </c>
       <c r="D68" t="s">
-        <v>2071</v>
+        <v>1898</v>
       </c>
       <c r="E68" t="s">
-        <v>2072</v>
+        <v>1898</v>
       </c>
       <c r="F68" t="s">
+        <v>2074</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I68" t="s">
         <v>1896</v>
       </c>
-      <c r="G68" t="s">
+      <c r="J68" t="s">
         <v>1896</v>
       </c>
-      <c r="H68" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I68" t="s">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B69" t="s">
         <v>2074</v>
       </c>
-      <c r="J68" t="s">
+      <c r="C69" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K69" t="s">
+        <v>2083</v>
+      </c>
+      <c r="L69" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B70" t="s">
         <v>2075</v>
       </c>
-      <c r="K68" t="s">
-        <v>2073</v>
-      </c>
-      <c r="L68" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F70" t="s">
         <v>2076</v>
       </c>
-      <c r="C70" t="s">
-        <v>2045</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E70" t="s">
-        <v>2046</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F71" t="s">
         <v>2077</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I71" t="s">
         <v>1896</v>
       </c>
-      <c r="H70" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I70" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J70" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+      <c r="J71" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B72" t="s">
         <v>2077</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G72" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C73" t="s">
         <v>2086</v>
       </c>
-      <c r="D71" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F71" t="s">
-        <v>2078</v>
-      </c>
-      <c r="G71" t="s">
-        <v>2078</v>
-      </c>
-      <c r="H71" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I71" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J71" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>2078</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D73" t="s">
         <v>2087</v>
       </c>
-      <c r="D72" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F72" t="s">
-        <v>2079</v>
-      </c>
-      <c r="G72" t="s">
-        <v>2079</v>
-      </c>
-      <c r="H72" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I72" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J72" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>2079</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>2088</v>
       </c>
-      <c r="D73" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1904</v>
-      </c>
       <c r="F73" t="s">
-        <v>2080</v>
+        <v>1892</v>
       </c>
       <c r="G73" t="s">
-        <v>2080</v>
+        <v>1892</v>
       </c>
       <c r="H73" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I73" t="s">
-        <v>1900</v>
+        <v>2089</v>
       </c>
       <c r="J73" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+        <v>2090</v>
+      </c>
+      <c r="K73" t="s">
+        <v>2091</v>
+      </c>
+      <c r="L73" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2027</v>
+      </c>
       <c r="B74" t="s">
-        <v>2080</v>
+        <v>2092</v>
       </c>
       <c r="C74" t="s">
-        <v>2089</v>
+        <v>2038</v>
       </c>
       <c r="D74" t="s">
-        <v>1904</v>
+        <v>1890</v>
       </c>
       <c r="E74" t="s">
-        <v>1904</v>
+        <v>2039</v>
       </c>
       <c r="F74" t="s">
-        <v>2081</v>
+        <v>2093</v>
       </c>
       <c r="G74" t="s">
-        <v>2081</v>
+        <v>1892</v>
       </c>
       <c r="H74" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I74" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="J74" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>2027</v>
+      </c>
       <c r="B75" t="s">
-        <v>2081</v>
+        <v>2093</v>
       </c>
       <c r="C75" t="s">
-        <v>2051</v>
+        <v>2107</v>
       </c>
       <c r="D75" t="s">
-        <v>1913</v>
+        <v>1898</v>
       </c>
       <c r="E75" t="s">
-        <v>1913</v>
+        <v>1898</v>
       </c>
       <c r="F75" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G75" t="s">
+        <v>2094</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I75" t="s">
         <v>1896</v>
       </c>
-      <c r="G75" t="s">
+      <c r="J75" t="s">
         <v>1896</v>
       </c>
-      <c r="H75" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I75" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J75" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K75" t="s">
-        <v>2090</v>
-      </c>
-      <c r="L75" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>2027</v>
+      </c>
       <c r="B76" t="s">
-        <v>2082</v>
+        <v>2094</v>
       </c>
       <c r="C76" t="s">
-        <v>1917</v>
+        <v>2108</v>
       </c>
       <c r="D76" t="s">
-        <v>1927</v>
+        <v>1898</v>
       </c>
       <c r="E76" t="s">
-        <v>1928</v>
+        <v>1898</v>
       </c>
       <c r="F76" t="s">
-        <v>2083</v>
+        <v>2095</v>
       </c>
       <c r="G76" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I76" t="s">
         <v>1896</v>
       </c>
-      <c r="H76" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I76" t="s">
-        <v>1900</v>
-      </c>
       <c r="J76" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2027</v>
+      </c>
       <c r="B77" t="s">
-        <v>2083</v>
+        <v>2095</v>
       </c>
       <c r="C77" t="s">
-        <v>2091</v>
+        <v>2109</v>
       </c>
       <c r="D77" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="E77" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="F77" t="s">
-        <v>2084</v>
+        <v>2096</v>
       </c>
       <c r="G77" t="s">
-        <v>2084</v>
+        <v>2096</v>
       </c>
       <c r="H77" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I77" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="J77" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>2027</v>
+      </c>
       <c r="B78" t="s">
-        <v>2084</v>
+        <v>2096</v>
       </c>
       <c r="C78" t="s">
-        <v>2092</v>
+        <v>2110</v>
       </c>
       <c r="D78" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="E78" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="F78" t="s">
-        <v>2085</v>
+        <v>2097</v>
       </c>
       <c r="G78" t="s">
-        <v>2085</v>
+        <v>2097</v>
       </c>
       <c r="H78" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I78" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="J78" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>2027</v>
+      </c>
       <c r="B79" t="s">
-        <v>2085</v>
+        <v>2097</v>
       </c>
       <c r="C79" t="s">
-        <v>2093</v>
+        <v>2044</v>
       </c>
       <c r="D79" t="s">
-        <v>2094</v>
+        <v>1906</v>
       </c>
       <c r="E79" t="s">
-        <v>2095</v>
+        <v>1906</v>
       </c>
       <c r="F79" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I79" t="s">
         <v>1896</v>
       </c>
-      <c r="G79" t="s">
+      <c r="J79" t="s">
         <v>1896</v>
       </c>
-      <c r="H79" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I79" t="s">
-        <v>2096</v>
-      </c>
-      <c r="J79" t="s">
-        <v>2097</v>
-      </c>
       <c r="K79" t="s">
+        <v>2111</v>
+      </c>
+      <c r="L79" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B80" t="s">
         <v>2098</v>
       </c>
-      <c r="L79" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>2027</v>
+      </c>
       <c r="B81" t="s">
         <v>2099</v>
       </c>
       <c r="C81" t="s">
-        <v>2045</v>
+        <v>2112</v>
       </c>
       <c r="D81" t="s">
-        <v>1891</v>
+        <v>1898</v>
       </c>
       <c r="E81" t="s">
-        <v>2046</v>
+        <v>1898</v>
       </c>
       <c r="F81" t="s">
         <v>2100</v>
       </c>
       <c r="G81" t="s">
+        <v>2100</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I81" t="s">
         <v>1896</v>
       </c>
-      <c r="H81" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I81" t="s">
-        <v>1900</v>
-      </c>
       <c r="J81" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>2027</v>
+      </c>
       <c r="B82" t="s">
         <v>2100</v>
       </c>
       <c r="C82" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D82" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="E82" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="F82" t="s">
         <v>2101</v>
@@ -9119,27 +9565,30 @@
         <v>2101</v>
       </c>
       <c r="H82" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I82" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="J82" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>2027</v>
+      </c>
       <c r="B83" t="s">
         <v>2101</v>
       </c>
       <c r="C83" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D83" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="E83" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="F83" t="s">
         <v>2102</v>
@@ -9148,138 +9597,153 @@
         <v>2102</v>
       </c>
       <c r="H83" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I83" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="J83" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>2027</v>
+      </c>
       <c r="B84" t="s">
         <v>2102</v>
       </c>
       <c r="C84" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K84" t="s">
         <v>2116</v>
       </c>
-      <c r="D84" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F84" t="s">
-        <v>2103</v>
-      </c>
-      <c r="G84" t="s">
-        <v>2103</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L84" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2027</v>
+      </c>
       <c r="B85" t="s">
         <v>2103</v>
       </c>
       <c r="C85" t="s">
-        <v>2117</v>
+        <v>1910</v>
       </c>
       <c r="D85" t="s">
-        <v>1904</v>
+        <v>1920</v>
       </c>
       <c r="E85" t="s">
-        <v>1904</v>
+        <v>1921</v>
       </c>
       <c r="F85" t="s">
         <v>2104</v>
       </c>
       <c r="G85" t="s">
-        <v>2104</v>
+        <v>1892</v>
       </c>
       <c r="H85" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I85" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="J85" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2027</v>
+      </c>
       <c r="B86" t="s">
         <v>2104</v>
       </c>
       <c r="C86" t="s">
-        <v>2051</v>
+        <v>2118</v>
       </c>
       <c r="D86" t="s">
-        <v>1913</v>
+        <v>1898</v>
       </c>
       <c r="E86" t="s">
-        <v>1913</v>
+        <v>1898</v>
       </c>
       <c r="F86" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2105</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I86" t="s">
         <v>1896</v>
       </c>
-      <c r="G86" t="s">
+      <c r="J86" t="s">
         <v>1896</v>
       </c>
-      <c r="H86" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I86" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K86" t="s">
-        <v>2118</v>
-      </c>
-      <c r="L86" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>2027</v>
+      </c>
       <c r="B87" t="s">
         <v>2105</v>
       </c>
       <c r="C87" t="s">
-        <v>1917</v>
+        <v>2115</v>
       </c>
       <c r="D87" t="s">
-        <v>1927</v>
+        <v>1898</v>
       </c>
       <c r="E87" t="s">
-        <v>1928</v>
+        <v>1898</v>
       </c>
       <c r="F87" t="s">
         <v>2106</v>
       </c>
       <c r="G87" t="s">
+        <v>2106</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I87" t="s">
         <v>1896</v>
       </c>
-      <c r="H87" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I87" t="s">
-        <v>1900</v>
-      </c>
       <c r="J87" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>2027</v>
+      </c>
       <c r="B88" t="s">
         <v>2106</v>
       </c>
@@ -9287,269 +9751,63 @@
         <v>2119</v>
       </c>
       <c r="D88" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="E88" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="F88" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="G88" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="H88" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I88" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="J88" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>2027</v>
+      </c>
       <c r="B89" t="s">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="C89" t="s">
         <v>2120</v>
       </c>
       <c r="D89" t="s">
-        <v>1904</v>
+        <v>2122</v>
       </c>
       <c r="E89" t="s">
-        <v>1904</v>
+        <v>2123</v>
       </c>
       <c r="F89" t="s">
-        <v>2108</v>
+        <v>1892</v>
       </c>
       <c r="G89" t="s">
-        <v>2108</v>
+        <v>1892</v>
       </c>
       <c r="H89" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="I89" t="s">
-        <v>1900</v>
+        <v>2124</v>
       </c>
       <c r="J89" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C90" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K89" t="s">
         <v>2121</v>
       </c>
-      <c r="D90" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F90" t="s">
-        <v>2109</v>
-      </c>
-      <c r="G90" t="s">
-        <v>2109</v>
-      </c>
-      <c r="H90" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I90" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J90" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>2109</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2051</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1896</v>
-      </c>
-      <c r="G91" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H91" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I91" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J91" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K91" t="s">
-        <v>2123</v>
-      </c>
-      <c r="L91" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>2110</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1928</v>
-      </c>
-      <c r="F92" t="s">
-        <v>2111</v>
-      </c>
-      <c r="G92" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I92" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J92" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>2111</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2125</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F93" t="s">
-        <v>2112</v>
-      </c>
-      <c r="G93" t="s">
-        <v>2112</v>
-      </c>
-      <c r="H93" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I93" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J93" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>2112</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2122</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F94" t="s">
-        <v>2113</v>
-      </c>
-      <c r="G94" t="s">
-        <v>2113</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I94" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J94" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>2113</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2126</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F95" t="s">
-        <v>2124</v>
-      </c>
-      <c r="G95" t="s">
-        <v>2124</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I95" t="s">
-        <v>1900</v>
-      </c>
-      <c r="J95" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>2124</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2127</v>
-      </c>
-      <c r="D96" t="s">
-        <v>2129</v>
-      </c>
-      <c r="E96" t="s">
-        <v>2130</v>
-      </c>
-      <c r="F96" t="s">
-        <v>1896</v>
-      </c>
-      <c r="G96" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I96" t="s">
-        <v>2131</v>
-      </c>
-      <c r="J96" t="s">
-        <v>2131</v>
-      </c>
-      <c r="K96" t="s">
-        <v>2128</v>
-      </c>
-      <c r="L96" t="s">
-        <v>2128</v>
+      <c r="L89" t="s">
+        <v>2121</v>
       </c>
     </row>
   </sheetData>
